--- a/Assets/Resources/Kosugi/MurabitoPatrol.xlsx
+++ b/Assets/Resources/Kosugi/MurabitoPatrol.xlsx
@@ -1105,7 +1105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1129,26 +1129,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1184,34 +1164,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1220,8 +1182,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1233,7 +1197,71 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1246,22 +1274,43 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1270,10 +1319,25 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1285,13 +1349,43 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1300,59 +1394,75 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left style="medium">
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1362,17 +1472,26 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -1386,314 +1505,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1741,201 +1552,138 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2229,63 +1977,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="I2" s="21" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="4">
         <v>10</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="I3" s="21" t="s">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="I3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="K3" t="s">
@@ -2293,28 +2041,28 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="4">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
@@ -2322,26 +2070,26 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="4">
         <v>11</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="I5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K5" t="s">
@@ -2349,28 +2097,28 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="4">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="4">
         <v>8</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K6" t="s">
@@ -2378,28 +2126,28 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="4">
         <v>17</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="4">
         <v>11</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="K7" t="s">
@@ -2407,26 +2155,26 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="4">
         <v>21</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="4">
         <v>6</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="I8" s="21" t="s">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="I8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K8" t="s">
@@ -2434,26 +2182,26 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="4">
         <v>23</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="I9" s="21" t="s">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="I9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K9" t="s">
@@ -2461,26 +2209,26 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="4">
         <v>24</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="4">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="I10" s="21" t="s">
+      <c r="G10" s="11"/>
+      <c r="I10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K10" t="s">
@@ -2488,26 +2236,26 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="4">
         <v>26</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="I11" s="21" t="s">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="I11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K11" t="s">
@@ -2515,26 +2263,26 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="4">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="4">
         <v>7</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="I12" s="21" t="s">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="I12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K12" t="s">
@@ -2542,28 +2290,28 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="4">
         <v>29</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="4">
         <v>9</v>
       </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
@@ -2571,26 +2319,26 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="4">
         <v>30</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="I14" s="21" t="s">
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="I14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="K14" t="s">
@@ -2598,26 +2346,26 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="5">
         <v>31</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="I15" s="21" t="s">
+      <c r="G15" s="11"/>
+      <c r="I15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
@@ -2635,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2647,485 +2395,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="30" t="s">
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="27">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="4">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
-        <v>0</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="13">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="14">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
         <v>6</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="4">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="25">
+      <c r="A6" s="4">
         <v>7</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="31">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>60</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="34">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
         <v>8</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="35">
-        <v>0</v>
-      </c>
-      <c r="E7" s="34">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30" t="s">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="25">
+      <c r="A9" s="4">
         <v>14</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="31">
-        <v>0</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>120</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="34">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
         <v>15</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="35">
-        <v>0</v>
-      </c>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30" t="s">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="27">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
         <v>17</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="4">
         <v>11</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>180</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="14">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="4">
         <v>18</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="32" t="s">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="25">
+      <c r="A13" s="4">
         <v>20</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="27">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="34">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
         <v>21</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="35">
-        <v>0</v>
-      </c>
-      <c r="E14" s="34">
-        <v>0</v>
-      </c>
-      <c r="F14" s="30" t="s">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="27">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
         <v>22</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="27">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="14">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
         <v>23</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="32" t="s">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="24">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
         <v>24</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="4">
         <v>7</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="4">
         <v>8</v>
       </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="4">
         <v>26</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>2</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="36" t="s">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="24">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
         <v>28</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="4">
         <v>7</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="22">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
         <v>29</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>9</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="4">
         <v>2</v>
       </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>240</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="24">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
         <v>30</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0</v>
-      </c>
-      <c r="F21" s="30" t="s">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3136,27 +2884,27 @@
       <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="5">
         <v>5</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F24" s="64"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F25" s="64"/>
+      <c r="F25" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3176,320 +2924,320 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="36" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="42"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="42"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="42"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="25">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="42"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="42"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="42"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="22">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="25">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="42"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="29">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="17">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="42"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="22">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="29">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="22">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="25">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="29">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="17">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="22">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="33">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C30" s="36">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="33">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="36">
         <v>31</v>
       </c>
     </row>
